--- a/static/2023-Rice Lake Area Free Clinic dashboard.xlsx
+++ b/static/2023-Rice Lake Area Free Clinic dashboard.xlsx
@@ -14606,7 +14606,7 @@
         </is>
       </c>
       <c r="C29" s="57" t="n">
-        <v>176.45</v>
+        <v>187.19</v>
       </c>
       <c r="D29" s="281" t="n"/>
       <c r="E29" s="45" t="n"/>
@@ -14618,7 +14618,7 @@
         </is>
       </c>
       <c r="C30" s="57" t="n">
-        <v>176.45</v>
+        <v>187.19</v>
       </c>
       <c r="D30" s="281" t="n"/>
       <c r="E30" s="45" t="n"/>
@@ -14630,7 +14630,7 @@
         </is>
       </c>
       <c r="C31" s="57" t="n">
-        <v>236.44</v>
+        <v>250.83</v>
       </c>
       <c r="D31" s="281" t="n"/>
     </row>
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="C33" s="61" t="n">
-        <v>14.23</v>
+        <v>33.95</v>
       </c>
       <c r="D33" s="64" t="n"/>
       <c r="E33" s="45" t="n"/>
@@ -14663,7 +14663,7 @@
         </is>
       </c>
       <c r="C35" s="61" t="n">
-        <v>18.26</v>
+        <v>25.57</v>
       </c>
       <c r="D35" s="64" t="n"/>
       <c r="E35" s="45" t="n"/>
@@ -14680,7 +14680,7 @@
         </is>
       </c>
       <c r="C37" s="61" t="n">
-        <v>204</v>
+        <v>338.4</v>
       </c>
       <c r="D37" s="281" t="n"/>
     </row>
@@ -14695,7 +14695,7 @@
         </is>
       </c>
       <c r="C39" s="57" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D39" s="282" t="n"/>
       <c r="E39" s="216" t="n"/>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="C40" s="57" t="n">
-        <v>16.94</v>
+        <v>40</v>
       </c>
       <c r="D40" s="216" t="n"/>
       <c r="E40" s="216" t="n"/>
@@ -14720,7 +14720,7 @@
         </is>
       </c>
       <c r="C41" s="57" t="n">
-        <v>28.39</v>
+        <v>40</v>
       </c>
       <c r="D41" s="216" t="n"/>
       <c r="E41" s="216" t="n"/>
@@ -14738,7 +14738,7 @@
         </is>
       </c>
       <c r="C43" s="57" t="n">
-        <v>34.6</v>
+        <v>54.5</v>
       </c>
       <c r="D43" s="56" t="n"/>
     </row>
@@ -14756,7 +14756,7 @@
         </is>
       </c>
       <c r="C45" s="57" t="n">
-        <v>71.18000000000001</v>
+        <v>116.57</v>
       </c>
       <c r="D45" s="56" t="n"/>
     </row>
@@ -14772,9 +14772,8 @@
           <t>Average Value of a Volunteer Hour</t>
         </is>
       </c>
-      <c r="C47" s="57">
-        <f>1484.08/52</f>
-        <v/>
+      <c r="C47" s="57" t="n">
+        <v>31.86</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1" s="236" thickBot="1">
